--- a/data/trans_orig/P27F_1-Urba-trans_orig.xlsx
+++ b/data/trans_orig/P27F_1-Urba-trans_orig.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según obtención de atención médica cuando se necesitaba en Mz1 (tasa de respuesta: 99,87%)</t>
+          <t>Población según obtención de atención médica cuando se necesitaba en M5 (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -842,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>118066</t>
+          <t>1078830</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>109361</t>
+          <t>1010034</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>127401</t>
+          <t>1166204</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>113180</t>
+          <t>991036</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>104539</t>
+          <t>916313</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>122435</t>
+          <t>1072513</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>59,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>678</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>231246</t>
+          <t>2069866</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>218645</t>
+          <t>1963803</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>243204</t>
+          <t>2175485</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>60,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>63,28%</t>
         </is>
       </c>
     </row>
@@ -955,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>103415</t>
+          <t>503773</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94864</t>
+          <t>419680</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>112529</t>
+          <t>573011</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>111699</t>
+          <t>745884</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>103223</t>
+          <t>662617</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>120453</t>
+          <t>818285</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215114</t>
+          <t>1249657</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203087</t>
+          <t>1145175</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>227750</t>
+          <t>1355883</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>39,44%</t>
         </is>
       </c>
     </row>
@@ -1073,102 +1074,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>34672</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>18722</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6224</t>
+          <t>61139</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5814</t>
+          <t>41171</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>21682</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8438</t>
+          <t>73015</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>9540</t>
+          <t>75843</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>46905</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13168</t>
+          <t>112258</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1181,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>19844</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>8376</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8405</t>
+          <t>38677</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>22526</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>9683</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8892</t>
+          <t>40744</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>10288</t>
+          <t>42370</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>7055</t>
+          <t>25089</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>14940</t>
+          <t>66634</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1294,22 +1295,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229466</t>
+          <t>1637119</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229466</t>
+          <t>1637119</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229466</t>
+          <t>1637119</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1329,22 +1330,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>236722</t>
+          <t>1800617</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>236722</t>
+          <t>1800617</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>236722</t>
+          <t>1800617</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1364,22 +1365,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>466188</t>
+          <t>3437736</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>466188</t>
+          <t>3437736</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>466188</t>
+          <t>3437736</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1524,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35631</t>
+          <t>911791</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30527</t>
+          <t>839440</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40965</t>
+          <t>977132</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>70,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35328</t>
+          <t>769726</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31013</t>
+          <t>697545</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39497</t>
+          <t>831955</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>552</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>70959</t>
+          <t>1681517</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>64222</t>
+          <t>1580263</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>78283</t>
+          <t>1778118</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>64,24%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33697</t>
+          <t>422587</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28504</t>
+          <t>355269</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39249</t>
+          <t>491919</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28770</t>
+          <t>531837</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24770</t>
+          <t>468332</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>33329</t>
+          <t>594946</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>339</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>62467</t>
+          <t>954424</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>55233</t>
+          <t>858885</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>69189</t>
+          <t>1050966</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>37,97%</t>
         </is>
       </c>
     </row>
@@ -1750,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>24863</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>12358</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>47773</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>38437</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>22433</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>75110</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>3194</t>
+          <t>63300</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>40664</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>103419</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -1863,107 +1864,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>17388</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>5801</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2261</t>
+          <t>36045</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51146</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21520</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>147063</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>68534</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>36274</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2312</t>
+          <t>175231</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1977,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1376629</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1376629</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1376629</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2011,22 +2012,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1391146</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1391146</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>65562</t>
+          <t>1391146</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2046,22 +2047,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>930</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>137603</t>
+          <t>2767775</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>137603</t>
+          <t>2767775</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>137603</t>
+          <t>2767775</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,7 +2099,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2113,7 +2114,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2133,7 +2134,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2148,7 +2149,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2168,7 +2169,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2183,7 +2184,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2206,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>253990</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>193440</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>298518</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>214478</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>173746</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>252465</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>132</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>468467</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>400982</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>530680</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,58%</t>
         </is>
       </c>
     </row>
@@ -2319,107 +2320,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>148431</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>102172</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>217920</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>190027</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>152296</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>231064</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>338457</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>277505</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>407247</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,79%</t>
         </is>
       </c>
     </row>
@@ -2432,107 +2433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27945</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7391</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19993</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12640</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>34872</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -2545,37 +2546,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15144</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>38452</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2585,7 +2586,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2600,7 +2601,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
@@ -2615,37 +2616,37 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15144</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>38477</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -2658,107 +2659,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>411895</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>411895</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>411895</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>224</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>834709</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>834709</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>834709</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2888,107 +2889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>153697</t>
+          <t>2244611</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>142851</t>
+          <t>2119348</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>164549</t>
+          <t>2355248</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>148508</t>
+          <t>1975240</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>138316</t>
+          <t>1853920</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>158883</t>
+          <t>2078717</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>302205</t>
+          <t>4219851</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>287493</t>
+          <t>4052351</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>316411</t>
+          <t>4364988</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>52,4%</t>
+          <t>62,0%</t>
         </is>
       </c>
     </row>
@@ -3001,107 +3002,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>137112</t>
+          <t>1074790</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>125884</t>
+          <t>968980</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>147515</t>
+          <t>1205226</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>140470</t>
+          <t>1467747</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>130432</t>
+          <t>1365949</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>150288</t>
+          <t>1573151</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>857</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>277582</t>
+          <t>2542538</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>263207</t>
+          <t>2408131</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>291692</t>
+          <t>2703736</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>38,4%</t>
         </is>
       </c>
     </row>
@@ -3114,57 +3115,57 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>64785</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>39919</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>96543</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7277</t>
+          <t>86998</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>60021</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>10802</t>
+          <t>131842</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3174,42 +3175,42 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>12734</t>
+          <t>151783</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>9583</t>
+          <t>110424</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>17229</t>
+          <t>200386</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
@@ -3227,107 +3228,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>52376</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>30175</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9437</t>
+          <t>82278</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>73672</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4029</t>
+          <t>40630</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>170517</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>126048</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>8006</t>
+          <t>86155</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>16074</t>
+          <t>222118</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -3340,22 +3341,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>301507</t>
+          <t>3436562</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3375,22 +3376,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>302284</t>
+          <t>3603657</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3410,22 +3411,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>603791</t>
+          <t>7040220</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3511,7 +3512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según obtención de atención médica cuando se necesitaba en Mz2 (tasa de respuesta: 99,77%)</t>
+          <t>Población según obtención de atención médica cuando se necesitaba en Mz1 (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3809,6 +3810,2973 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>118066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>109361</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>127401</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47,66%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>113180</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>104539</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122435</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>44,16%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>231246</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>218645</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>243204</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>52,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>103415</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94864</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>112529</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>111699</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>103223</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>120453</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>47,19%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>43,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>50,88%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>215114</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>203087</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>227750</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>46,14%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>43,56%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>48,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6224</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5814</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8438</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9540</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6691</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13168</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2192</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8405</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8892</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14940</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>229466</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>229466</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>229466</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>236722</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236722</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>236722</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>466188</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>466188</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>466188</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35631</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30527</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40965</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>49,46%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56,86%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31013</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39497</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53,89%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47,3%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>60,24%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>70959</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>64222</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>78283</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>51,57%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>46,67%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>56,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33697</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28504</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39249</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28770</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24770</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33329</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>37,78%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>50,84%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>62467</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>55233</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>69189</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>45,4%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3194</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5859</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2261</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65562</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>137603</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>137603</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>137603</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>153697</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>142851</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>164549</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50,98%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>54,58%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>148508</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>138316</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>158883</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>49,13%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>302205</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>287493</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>316411</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>50,05%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>52,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>137112</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>125884</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>147515</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45,48%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48,93%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>140470</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>130432</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>150288</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46,47%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>43,15%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>277582</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>263207</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>291692</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>48,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5457</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>5070</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>10802</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>12734</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>9583</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>17229</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>9437</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>8006</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>16074</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>301507</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>302284</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>603791</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según obtención de atención médica cuando se necesitaba en Mz2 (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>324</t>
         </is>
       </c>
